--- a/H1299_143B_prot-nucl-quant/acid-hydrolysis/output/conc.xlsx
+++ b/H1299_143B_prot-nucl-quant/acid-hydrolysis/output/conc.xlsx
@@ -603,7 +603,7 @@
         <v>4473.072621764174</v>
       </c>
       <c r="Y2">
-        <v>9444.422850133124</v>
+        <v>9546.556629102415</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -680,7 +680,7 @@
         <v>2974.745623034401</v>
       </c>
       <c r="Y3">
-        <v>6262.537141958896</v>
+        <v>7381.500404237708</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -757,7 +757,7 @@
         <v>4717.959972476537</v>
       </c>
       <c r="Y4">
-        <v>9557.198111316204</v>
+        <v>10012.41988088334</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -834,7 +834,7 @@
         <v>4969.081615359429</v>
       </c>
       <c r="Y5">
-        <v>10069.78471487047</v>
+        <v>10357.68124401707</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -988,7 +988,7 @@
         <v>4394.458935597118</v>
       </c>
       <c r="Y7">
-        <v>9392.881516982317</v>
+        <v>9818.839813139533</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1065,7 +1065,7 @@
         <v>5519.063602143479</v>
       </c>
       <c r="Y8">
-        <v>10621.90189727359</v>
+        <v>10651.19381653994</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1142,7 +1142,7 @@
         <v>5684.630088413053</v>
       </c>
       <c r="Y9">
-        <v>11008.91377101186</v>
+        <v>11283.45789234655</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1219,7 +1219,7 @@
         <v>5145.991889383402</v>
       </c>
       <c r="Y10">
-        <v>9973.056871261289</v>
+        <v>10041.46528043723</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1296,7 +1296,7 @@
         <v>2689.58607886182</v>
       </c>
       <c r="Y11">
-        <v>5764.920215943423</v>
+        <v>5798.882451335812</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1373,7 +1373,7 @@
         <v>2483.174663164042</v>
       </c>
       <c r="Y12">
-        <v>5139.15728610018</v>
+        <v>5610.654898199475</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1450,7 +1450,7 @@
         <v>2592.592672521969</v>
       </c>
       <c r="Y13">
-        <v>5414.239097258738</v>
+        <v>5733.863630163924</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1527,7 +1527,7 @@
         <v>3012.372507729621</v>
       </c>
       <c r="Y14">
-        <v>6141.522169749638</v>
+        <v>6400.80605048649</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1604,7 +1604,7 @@
         <v>2769.610605985483</v>
       </c>
       <c r="Y15">
-        <v>5874.957584593789</v>
+        <v>6032.368511212451</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1681,7 +1681,7 @@
         <v>3286.835036624911</v>
       </c>
       <c r="Y16">
-        <v>6744.297709391081</v>
+        <v>6929.365992253242</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1758,7 +1758,7 @@
         <v>2801.422191158896</v>
       </c>
       <c r="Y17">
-        <v>5659.791890959707</v>
+        <v>5952.73273458463</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1835,7 +1835,7 @@
         <v>3977.874281151207</v>
       </c>
       <c r="Y18">
-        <v>7851.898390014396</v>
+        <v>7908.132940801575</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1912,7 +1912,7 @@
         <v>3404.886275815531</v>
       </c>
       <c r="Y19">
-        <v>6792.637153325617</v>
+        <v>6960.351264419302</v>
       </c>
     </row>
   </sheetData>
